--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàâåñîïå, âìàäåìåø åæ ðïëà îå\nïóëñúì...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our sense of smell\'s acute.\nWe\'re real sensitive about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But the stink is mostly gone.\nThat\'s a good thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас великолепный нюх.\nМы очень чувствительны к запахам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но вонь почти исчезла. Это\nпрекрасно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò âåìéëïìåðîúê îýö.\nÍú ïœåîû œôâòóâéóåìûîú ë èàðàöàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âïîû ðïœóé éòœåèìà. Üóï\nðñåëñàòîï.</t>
   </si>
 </sst>
 </file>
@@ -492,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,17 +627,49 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>204</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>179</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>182</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Îï âïîû ðïœóé éòœåèìà. Üóï\nðñåëñàòîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no way we can ignore\nwhat [CS:N]Grovyle[CR] is up to.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1413.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не можем игнорировать то,\nчто затевает [CS:N]Гровайл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå íïçåí éãîïñéñïâàóû óï,\nœóï èàóåâàåó [CS:N]Ãñïâàêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if [CS:N]Grovyle[CR] is out to get the\nTime Gears...[K]it might be better to just seal\nthem away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s an option worth considering.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1606.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если [CS:N]Гровайл[CR] будет пытаться\nукрасть Шестерни Времени...[K] Возможно, нам\nстоит их спрятать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Над таким вариантом стоит\nпоразмыслить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé [CS:N]Ãñïâàêì[CR] áôäåó ðúóàóûòÿ\nôëñàòóû Šåòóåñîé Âñåíåîé...[K] Âïèíïçîï, îàí\nòóïéó éö òðñÿóàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàä óàëéí âàñéàîóïí òóïéó\nðïñàèíúòìéóû.</t>
   </si>
 </sst>
 </file>
@@ -513,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,17 +692,66 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>182</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8">
+        <v>160</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>138</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>141</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàä óàëéí âàñéàîóïí òóïéó\nðïñàèíúòìéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck to you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí!</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -741,17 +753,35 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>141</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -163,6 +163,75 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé âàí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2507.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve never heard of that.[K]\nThe grand master of all things bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Still, there\'s plenty we don\'t\nknow about the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes it that much more\nrewarding to be an exploration team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, there\'s something else...[K]\nWe heard this from other teams…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They told us about some newly\ndiscovered dungeons.[K] The wild Pokémon in\nthem seem more intelligent!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'ve learned to use\nitems...[K] And they\'re smarter in the ways they\nmove and attack!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So your team should keep that in\nmind when you\'re going into new dungeons!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гранд мастер всего самого\nплохого?[K] Я о нём ничего не знаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё таки, мы ещё многого не\nзнаем о нашем мире.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, нам только лучше от\nтого, что мы являемся командой\nисследователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, мы тут ещё узнали кое о чём...[K]\nОт других команд исследователей...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они научились применять\nпредметы...[K] И они стали умнее в\nтактическом смысле!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, всей команде нужно\nдержать эти факты в уме!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãñàîä íàòóåñ âòåãï òàíïãï\nðìïöïãï?[K] Ÿ ï îæí îéœåãï îå èîàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ óàëé, íú åþæ íîïãïãï îå\nèîàåí ï îàšåí íéñå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, îàí óïìûëï ìôœšå ïó\nóïãï, œóï íú ÿâìÿåíòÿ ëïíàîäïê\néòòìåäïâàóåìåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, íú óôó åþæ ôèîàìé ëïå ï œæí...[K]\nÏó äñôãéö ëïíàîä éòòìåäïâàóåìåê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé îàôœéìéòû ðñéíåîÿóû\nðñåäíåóú...[K] É ïîé òóàìé ôíîåå â\nóàëóéœåòëïí òíúòìå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, âòåê ëïíàîäå îôçîï\näåñçàóû üóé õàëóú â ôíå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам рассказали о новых, недавно\nобнаруженных подземельях.[K] В них находятся\nболее умные дикие Покемоны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí ñàòòëàèàìé ï îïâúö, îåäàâîï\nïáîàñôçåîîúö ðïäèåíåìûÿö.[K] Â îéö îàöïäÿóòÿ\náïìåå ôíîúå äéëéå Ðïëåíïîú!</t>
   </si>
 </sst>
 </file>
@@ -558,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,6 +853,116 @@
         <v>47</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>94</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>97</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пучиена 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -232,6 +232,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàí ñàòòëàèàìé ï îïâúö, îåäàâîï\nïáîàñôçåîîúö ðïäèåíåìûÿö.[K] Â îéö îàöïäÿóòÿ\náïìåå ôíîúå äéëéå Ðïëåíïîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I had a Pulpy Life Seed earlier,\nand it was pretty tasty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P01P04A/us0404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Недавно я пил Сок из Зерна Жизни.\nОн довольно вкусный.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåäàâîï ÿ ðéì Òïë éè Èåñîà Çéèîé.\nÏî äïâïìûîï âëôòîúê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2009.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We heard that [CS:N]Drowzee[CR] is holed\nup on [CS:P]Mt. Travail[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы слышали, что [CS:N]Дроузи[CR] окопался\nна [CS:P]Горе Травейл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/T01P02A/us2011.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òìúšàìé, œóï [CS:N]Äñïôèé[CR] ïëïðàìòÿ\nîà [CS:P]Ãïñå Óñàâåêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Drowzee[CR] has become a changed\nPokémon?[K] Good to hear he has reformed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not that it matters to us, since\nwe\'re a team that focuses on catching outlaws.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if [CS:N]Drowzee[CR] becomes an\noutlaw again, we\'ll be there to catch him.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2015.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не то чтобы это нас заботит,\nведь мы команда, которая ловит негодяев.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если [CS:N]Дроузи[CR] снова станет\nнегодяем, мы обязательно поймаем его.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå óï œóïáú üóï îàò èàáïóéó,\nâåäû íú ëïíàîäà, ëïóïñàÿ ìïâéó îåãïäÿåâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé [CS:N]Äñïôèé[CR] òîïâà òóàîåó\nîåãïäÿåí, íú ïáÿèàóåìûîï ðïêíàåí åãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äñïôèé[CR] éèíåîéìòÿ?[K] Ðñéÿóîï èîàóû,\nœóï ïî éòðñàâéìòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дроузи[CR] изменился?[K] Приятно знать,\nчто он исправился.</t>
   </si>
 </sst>
 </file>
@@ -627,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>88</v>
       </c>
@@ -907,7 +964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>91</v>
       </c>
@@ -921,7 +978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>94</v>
       </c>
@@ -935,7 +992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>97</v>
       </c>
@@ -949,18 +1006,107 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
         <v>100</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="4">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
